--- a/rawmaterial/eva/spec env map.xlsx
+++ b/rawmaterial/eva/spec env map.xlsx
@@ -9,53 +9,40 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25135" windowHeight="11088"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="5700"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
-    <sheet name="test" sheetId="1" r:id="rId2"/>
+    <sheet name="specenv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
-    <t>rsm resolution</t>
+    <t>4^2</t>
   </si>
   <si>
-    <t xml:space="preserve"> DrawSceneToGBuffer</t>
+    <t>8^2</t>
   </si>
   <si>
-    <t xml:space="preserve"> DrawShadowMaps</t>
+    <t>16^2</t>
   </si>
   <si>
-    <t xml:space="preserve"> VoxelizeScene</t>
+    <t>32^2</t>
   </si>
   <si>
-    <t xml:space="preserve"> VoxelBlendMipMap</t>
+    <t>64^2</t>
   </si>
   <si>
-    <t xml:space="preserve"> AllocateCaches</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LightCaches</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ApplyDirectLighting</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ApplyCaches</t>
-  </si>
-  <si>
-    <t>specenvmap</t>
-  </si>
-  <si>
-    <t>SpecMipMap</t>
+    <t xml:space="preserve"> application crash</t>
   </si>
   <si>
     <t>DIRECT WRITE</t>
+  </si>
+  <si>
+    <t>CACHED WRITE</t>
   </si>
 </sst>
 </file>
@@ -539,8 +526,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -862,867 +850,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>11</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>16</v>
+      </c>
+      <c r="C1">
+        <v>32</v>
+      </c>
+      <c r="D1">
+        <v>64</v>
+      </c>
+      <c r="E1">
+        <v>128</v>
+      </c>
+      <c r="F1">
+        <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>32</v>
-      </c>
-      <c r="D2">
-        <v>64</v>
-      </c>
-      <c r="E2">
-        <v>128</v>
-      </c>
-      <c r="F2">
-        <v>256</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>8</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1.3698300000000001</v>
+        <v>1.04</v>
       </c>
       <c r="C3">
-        <v>3.5668669999999998</v>
+        <v>3.05</v>
       </c>
       <c r="D3">
-        <v>12.300651</v>
+        <v>11.14</v>
       </c>
       <c r="E3">
-        <v>44.133204999999997</v>
+        <v>43.2</v>
       </c>
       <c r="F3">
-        <v>142.40815699999999</v>
+        <v>170.39</v>
+      </c>
+      <c r="H3">
+        <f>(B9-B3) / B9</f>
+        <v>-0.40540540540540548</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:L3" si="0">(C9-C3) / C9</f>
+        <v>-0.75287356321839072</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>-0.89134125636672346</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>-0.92000000000000015</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>-0.92183622828784106</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>16</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1.6134230000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C4">
-        <v>4.4222549999999998</v>
+        <v>3.48</v>
       </c>
       <c r="D4">
-        <v>14.496161000000001</v>
+        <v>12.83</v>
       </c>
       <c r="E4">
-        <v>49.410004000000001</v>
+        <v>49.67</v>
       </c>
       <c r="F4">
-        <v>148.951965</v>
+        <v>195.66</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H6" si="1">(B10-B4) / B10</f>
+        <v>-0.28888888888888875</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I6" si="2">(C10-C4) / C10</f>
+        <v>-0.64150943396226401</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J6" si="3">(D10-D4) / D10</f>
+        <v>-0.8095909732016926</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K6" si="4">(E10-E4) / E10</f>
+        <v>-0.8450965824665676</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L6" si="5">(F10-F4) / F10</f>
+        <v>-0.84706881903143572</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>32</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>2.1344189999999998</v>
+        <v>1.3</v>
       </c>
       <c r="C5">
-        <v>5.2318990000000003</v>
+        <v>3.62</v>
       </c>
       <c r="D5">
-        <v>16.226300999999999</v>
+        <v>12.95</v>
       </c>
       <c r="E5">
-        <v>54.056038000000001</v>
+        <v>49.86</v>
       </c>
       <c r="F5">
-        <v>158.68597399999999</v>
+        <v>195.87</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.65333333333333343</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>-0.18688524590163944</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>-0.38948497854077241</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>-0.44815567818762708</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>-0.4593205185516317</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>64</v>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>3.9191919999999998</v>
+        <v>1.72</v>
       </c>
       <c r="C6">
-        <v>7.299315</v>
+        <v>4.07</v>
       </c>
       <c r="D6">
-        <v>19.267118</v>
+        <v>13.33</v>
       </c>
       <c r="E6">
-        <v>59.725062999999999</v>
+        <v>49.96</v>
       </c>
       <c r="F6">
-        <v>170.32037399999999</v>
+        <v>195.24</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.79716981132075471</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.71617852161785212</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0.64754098360655743</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>0.61862595419847322</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>0.61063358793849587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3.42</v>
+      </c>
+      <c r="C7">
+        <v>5.78</v>
+      </c>
+      <c r="D7">
+        <v>15.06</v>
+      </c>
+      <c r="E7">
+        <v>51.76</v>
+      </c>
+      <c r="F7">
+        <v>196.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0.74</v>
+      </c>
+      <c r="C9">
+        <v>1.74</v>
+      </c>
+      <c r="D9">
+        <v>5.89</v>
+      </c>
+      <c r="E9">
+        <v>22.5</v>
+      </c>
+      <c r="F9">
+        <v>88.66</v>
+      </c>
+      <c r="H9">
+        <f>(B3-B9) / B3</f>
+        <v>0.28846153846153849</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:L9" si="6">(C3-C9) / C3</f>
+        <v>0.42950819672131146</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>0.4712746858168762</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>0.47966429954809553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <v>2.12</v>
+      </c>
+      <c r="D10">
+        <v>7.09</v>
+      </c>
+      <c r="E10">
+        <v>26.92</v>
+      </c>
+      <c r="F10">
+        <v>105.93</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H12" si="7">(B4-B10) / B4</f>
+        <v>0.22413793103448268</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I12" si="8">(C4-C10) / C4</f>
+        <v>0.39080459770114939</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J12" si="9">(D4-D10) / D4</f>
+        <v>0.44738893219017928</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K12" si="10">(E4-E10) / E4</f>
+        <v>0.45802295147976646</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L12" si="11">(F4-F10) / F4</f>
+        <v>0.45860165593376262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3.75</v>
+      </c>
+      <c r="C11">
+        <v>3.05</v>
+      </c>
+      <c r="D11">
+        <v>9.32</v>
+      </c>
+      <c r="E11">
+        <v>34.43</v>
+      </c>
+      <c r="F11">
+        <v>134.22</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="7"/>
+        <v>-1.8846153846153846</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="8"/>
+        <v>0.15745856353591167</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="9"/>
+        <v>0.28030888030888024</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="10"/>
+        <v>0.30946650621740873</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="11"/>
+        <v>0.31474957880226684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>8.48</v>
+      </c>
+      <c r="C12">
+        <v>14.34</v>
+      </c>
+      <c r="D12">
+        <v>37.82</v>
+      </c>
+      <c r="E12">
+        <v>131</v>
+      </c>
+      <c r="F12">
+        <v>501.43</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="7"/>
+        <v>-3.9302325581395352</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="8"/>
+        <v>-2.5233415233415228</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="9"/>
+        <v>-1.8372093023255816</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="10"/>
+        <v>-1.6220976781425138</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="11"/>
+        <v>-1.5682749436590862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H3:L6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:L12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24:Q28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>2.36815</v>
-      </c>
-      <c r="D2">
-        <v>1.2512810000000001</v>
-      </c>
-      <c r="E2">
-        <v>1.239654</v>
-      </c>
-      <c r="F2">
-        <v>0.44603900000000002</v>
-      </c>
-      <c r="G2">
-        <v>1.4501120000000001</v>
-      </c>
-      <c r="H2">
-        <v>1.3698300000000001</v>
-      </c>
-      <c r="I2">
-        <v>6.5851000000000007E-2</v>
-      </c>
-      <c r="J2">
-        <v>0.28682600000000003</v>
-      </c>
-      <c r="K2">
-        <v>3.8289870000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>2.3693029999999999</v>
-      </c>
-      <c r="D3">
-        <v>1.288686</v>
-      </c>
-      <c r="E3">
-        <v>1.2334719999999999</v>
-      </c>
-      <c r="F3">
-        <v>0.45074799999999998</v>
-      </c>
-      <c r="G3">
-        <v>1.4466209999999999</v>
-      </c>
-      <c r="H3">
-        <v>1.6134230000000001</v>
-      </c>
-      <c r="I3">
-        <v>0.103784</v>
-      </c>
-      <c r="J3">
-        <v>0.28509499999999999</v>
-      </c>
-      <c r="K3">
-        <v>3.8312719999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>2.3774449999999998</v>
-      </c>
-      <c r="D4">
-        <v>1.290392</v>
-      </c>
-      <c r="E4">
-        <v>1.229052</v>
-      </c>
-      <c r="F4">
-        <v>0.463142</v>
-      </c>
-      <c r="G4">
-        <v>1.4436119999999999</v>
-      </c>
-      <c r="H4">
-        <v>2.1344189999999998</v>
-      </c>
-      <c r="I4">
-        <v>0.22226599999999999</v>
-      </c>
-      <c r="J4">
-        <v>0.28487899999999999</v>
-      </c>
-      <c r="K4">
-        <v>3.8367140000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>64</v>
-      </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>2.3519570000000001</v>
-      </c>
-      <c r="D5">
-        <v>1.2669790000000001</v>
-      </c>
-      <c r="E5">
-        <v>1.217341</v>
-      </c>
-      <c r="F5">
-        <v>0.43823499999999999</v>
-      </c>
-      <c r="G5">
-        <v>1.427047</v>
-      </c>
-      <c r="H5">
-        <v>3.9191919999999998</v>
-      </c>
-      <c r="I5">
-        <v>0.57802900000000002</v>
-      </c>
-      <c r="J5">
-        <v>0.28363699999999997</v>
-      </c>
-      <c r="K5">
-        <v>3.8678620000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>2.3551690000000001</v>
-      </c>
-      <c r="D6">
-        <v>1.248556</v>
-      </c>
-      <c r="E6">
-        <v>1.2324679999999999</v>
-      </c>
-      <c r="F6">
-        <v>0.43818099999999999</v>
-      </c>
-      <c r="G6">
-        <v>1.4381459999999999</v>
-      </c>
-      <c r="H6">
-        <v>3.5668669999999998</v>
-      </c>
-      <c r="I6">
-        <v>9.7796999999999995E-2</v>
-      </c>
-      <c r="J6">
-        <v>0.28464299999999998</v>
-      </c>
-      <c r="K6">
-        <v>3.8031410000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>32</v>
-      </c>
-      <c r="C7">
-        <v>2.3500909999999999</v>
-      </c>
-      <c r="D7">
-        <v>1.236912</v>
-      </c>
-      <c r="E7">
-        <v>1.220397</v>
-      </c>
-      <c r="F7">
-        <v>0.43211300000000002</v>
-      </c>
-      <c r="G7">
-        <v>1.4272469999999999</v>
-      </c>
-      <c r="H7">
-        <v>4.4222549999999998</v>
-      </c>
-      <c r="I7">
-        <v>0.130495</v>
-      </c>
-      <c r="J7">
-        <v>0.282995</v>
-      </c>
-      <c r="K7">
-        <v>3.796443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>2.339359</v>
-      </c>
-      <c r="D8">
-        <v>1.244839</v>
-      </c>
-      <c r="E8">
-        <v>1.2171879999999999</v>
-      </c>
-      <c r="F8">
-        <v>0.43860900000000003</v>
-      </c>
-      <c r="G8">
-        <v>1.424482</v>
-      </c>
-      <c r="H8">
-        <v>5.2318990000000003</v>
-      </c>
-      <c r="I8">
-        <v>0.23714399999999999</v>
-      </c>
-      <c r="J8">
-        <v>0.28293800000000002</v>
-      </c>
-      <c r="K8">
-        <v>3.8030750000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>64</v>
-      </c>
-      <c r="B9">
-        <v>32</v>
-      </c>
-      <c r="C9">
-        <v>2.345818</v>
-      </c>
-      <c r="D9">
-        <v>1.2498419999999999</v>
-      </c>
-      <c r="E9">
-        <v>1.2174119999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.433062</v>
-      </c>
-      <c r="G9">
-        <v>1.424067</v>
-      </c>
-      <c r="H9">
-        <v>7.299315</v>
-      </c>
-      <c r="I9">
-        <v>0.61795999999999995</v>
-      </c>
-      <c r="J9">
-        <v>0.283416</v>
-      </c>
-      <c r="K9">
-        <v>3.8624540000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>64</v>
-      </c>
-      <c r="C10">
-        <v>2.3352889999999999</v>
-      </c>
-      <c r="D10">
-        <v>1.247943</v>
-      </c>
-      <c r="E10">
-        <v>1.218566</v>
-      </c>
-      <c r="F10">
-        <v>0.452733</v>
-      </c>
-      <c r="G10">
-        <v>1.4282300000000001</v>
-      </c>
-      <c r="H10">
-        <v>12.300651</v>
-      </c>
-      <c r="I10">
-        <v>0.18681600000000001</v>
-      </c>
-      <c r="J10">
-        <v>0.282362</v>
-      </c>
-      <c r="K10">
-        <v>3.766473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>64</v>
-      </c>
-      <c r="C11">
-        <v>2.334244</v>
-      </c>
-      <c r="D11">
-        <v>1.2560249999999999</v>
-      </c>
-      <c r="E11">
-        <v>1.217759</v>
-      </c>
-      <c r="F11">
-        <v>0.43334</v>
-      </c>
-      <c r="G11">
-        <v>1.4283509999999999</v>
-      </c>
-      <c r="H11">
-        <v>14.496161000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.21881900000000001</v>
-      </c>
-      <c r="J11">
-        <v>0.28246700000000002</v>
-      </c>
-      <c r="K11">
-        <v>3.7868590000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>64</v>
-      </c>
-      <c r="C12">
-        <v>2.3444430000000001</v>
-      </c>
-      <c r="D12">
-        <v>1.239085</v>
-      </c>
-      <c r="E12">
-        <v>1.217444</v>
-      </c>
-      <c r="F12">
-        <v>0.44319799999999998</v>
-      </c>
-      <c r="G12">
-        <v>1.4227890000000001</v>
-      </c>
-      <c r="H12">
-        <v>16.226300999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.324185</v>
-      </c>
-      <c r="J12">
-        <v>0.28279300000000002</v>
-      </c>
-      <c r="K12">
-        <v>3.8026620000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>64</v>
-      </c>
-      <c r="B13">
-        <v>64</v>
-      </c>
-      <c r="C13">
-        <v>2.3387989999999999</v>
-      </c>
-      <c r="D13">
-        <v>1.237241</v>
-      </c>
-      <c r="E13">
-        <v>1.2190890000000001</v>
-      </c>
-      <c r="F13">
-        <v>0.42971199999999998</v>
-      </c>
-      <c r="G13">
-        <v>1.4205220000000001</v>
-      </c>
-      <c r="H13">
-        <v>19.267118</v>
-      </c>
-      <c r="I13">
-        <v>0.66978300000000002</v>
-      </c>
-      <c r="J13">
-        <v>0.28340599999999999</v>
-      </c>
-      <c r="K13">
-        <v>3.8655689999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>128</v>
-      </c>
-      <c r="C14">
-        <v>2.3390460000000002</v>
-      </c>
-      <c r="D14">
-        <v>1.249492</v>
-      </c>
-      <c r="E14">
-        <v>1.2223809999999999</v>
-      </c>
-      <c r="F14">
-        <v>0.43929299999999999</v>
-      </c>
-      <c r="G14">
-        <v>1.4204140000000001</v>
-      </c>
-      <c r="H14">
-        <v>44.133204999999997</v>
-      </c>
-      <c r="I14">
-        <v>0.19542000000000001</v>
-      </c>
-      <c r="J14">
-        <v>0.28243400000000002</v>
-      </c>
-      <c r="K14">
-        <v>3.767684</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>128</v>
-      </c>
-      <c r="C15">
-        <v>2.335766</v>
-      </c>
-      <c r="D15">
-        <v>1.236694</v>
-      </c>
-      <c r="E15">
-        <v>1.2249840000000001</v>
-      </c>
-      <c r="F15">
-        <v>0.435284</v>
-      </c>
-      <c r="G15">
-        <v>1.429235</v>
-      </c>
-      <c r="H15">
-        <v>49.410004000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.23100899999999999</v>
-      </c>
-      <c r="J15">
-        <v>0.28258800000000001</v>
-      </c>
-      <c r="K15">
-        <v>3.7851379999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>128</v>
-      </c>
-      <c r="C16">
-        <v>2.3433869999999999</v>
-      </c>
-      <c r="D16">
-        <v>1.248772</v>
-      </c>
-      <c r="E16">
-        <v>1.218812</v>
-      </c>
-      <c r="F16">
-        <v>0.46538099999999999</v>
-      </c>
-      <c r="G16">
-        <v>1.4288920000000001</v>
-      </c>
-      <c r="H16">
-        <v>54.056038000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.33047799999999999</v>
-      </c>
-      <c r="J16">
-        <v>0.282966</v>
-      </c>
-      <c r="K16">
-        <v>3.804424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>64</v>
-      </c>
-      <c r="B17">
-        <v>128</v>
-      </c>
-      <c r="C17">
-        <v>2.342797</v>
-      </c>
-      <c r="D17">
-        <v>1.2312460000000001</v>
-      </c>
-      <c r="E17">
-        <v>1.2166760000000001</v>
-      </c>
-      <c r="F17">
-        <v>0.433952</v>
-      </c>
-      <c r="G17">
-        <v>1.429055</v>
-      </c>
-      <c r="H17">
-        <v>59.725062999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.68213400000000002</v>
-      </c>
-      <c r="J17">
-        <v>0.28351199999999999</v>
-      </c>
-      <c r="K17">
-        <v>3.866269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>256</v>
-      </c>
-      <c r="C18">
-        <v>2.344595</v>
-      </c>
-      <c r="D18">
-        <v>1.219679</v>
-      </c>
-      <c r="E18">
-        <v>1.2170810000000001</v>
-      </c>
-      <c r="F18">
-        <v>0.45180799999999999</v>
-      </c>
-      <c r="G18">
-        <v>1.4215530000000001</v>
-      </c>
-      <c r="H18">
-        <v>142.40815699999999</v>
-      </c>
-      <c r="I18">
-        <v>0.19220599999999999</v>
-      </c>
-      <c r="J18">
-        <v>0.28262599999999999</v>
-      </c>
-      <c r="K18">
-        <v>3.7651539999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>256</v>
-      </c>
-      <c r="C19">
-        <v>2.375111</v>
-      </c>
-      <c r="D19">
-        <v>1.2568649999999999</v>
-      </c>
-      <c r="E19">
-        <v>1.217041</v>
-      </c>
-      <c r="F19">
-        <v>0.43452800000000003</v>
-      </c>
-      <c r="G19">
-        <v>1.4429339999999999</v>
-      </c>
-      <c r="H19">
-        <v>148.951965</v>
-      </c>
-      <c r="I19">
-        <v>0.24596899999999999</v>
-      </c>
-      <c r="J19">
-        <v>0.283503</v>
-      </c>
-      <c r="K19">
-        <v>3.787128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>32</v>
-      </c>
-      <c r="B20">
-        <v>256</v>
-      </c>
-      <c r="C20">
-        <v>2.349116</v>
-      </c>
-      <c r="D20">
-        <v>1.252318</v>
-      </c>
-      <c r="E20">
-        <v>1.216939</v>
-      </c>
-      <c r="F20">
-        <v>0.46059499999999998</v>
-      </c>
-      <c r="G20">
-        <v>1.424544</v>
-      </c>
-      <c r="H20">
-        <v>158.68597399999999</v>
-      </c>
-      <c r="I20">
-        <v>0.32923999999999998</v>
-      </c>
-      <c r="J20">
-        <v>0.28310600000000002</v>
-      </c>
-      <c r="K20">
-        <v>3.8041610000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>64</v>
-      </c>
-      <c r="B21">
-        <v>256</v>
-      </c>
-      <c r="C21">
-        <v>2.3572869999999999</v>
-      </c>
-      <c r="D21">
-        <v>1.2667060000000001</v>
-      </c>
-      <c r="E21">
-        <v>1.215557</v>
-      </c>
-      <c r="F21">
-        <v>0.44627299999999998</v>
-      </c>
-      <c r="G21">
-        <v>1.4206650000000001</v>
-      </c>
-      <c r="H21">
-        <v>170.32037399999999</v>
-      </c>
-      <c r="I21">
-        <v>0.65230100000000002</v>
-      </c>
-      <c r="J21">
-        <v>0.28348099999999998</v>
-      </c>
-      <c r="K21">
-        <v>3.86904</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>